--- a/testdataa.xlsx
+++ b/testdataa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>Userame</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>rasengan</t>
+  </si>
+  <si>
+    <t>sylix admin</t>
   </si>
 </sst>
 </file>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,6 +448,11 @@
       </c>
       <c r="B10" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/testdataa.xlsx
+++ b/testdataa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>Userame</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>sylix admin</t>
+  </si>
+  <si>
+    <t>hlo</t>
   </si>
 </sst>
 </file>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,6 +456,11 @@
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
